--- a/data/Fe_in_preys.xlsx
+++ b/data/Fe_in_preys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023\Analyses\04.Pinnipeds_SouthernO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023\Analyses\FeSthOpinn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516EF9E-5F52-4983-8979-21BC08ADBA21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79983658-EC31-4BBB-8D54-9AC30F017DFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{B1A347AD-4986-41BD-9500-4E54C6029C2E}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>nrj_dw_KJ_g</t>
   </si>
   <si>
-    <t>nrh_ww_KJ_g</t>
-  </si>
-  <si>
     <t>Other zooplankton</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>Julshamn &amp; Grahl-Nielsen 2000</t>
+  </si>
+  <si>
+    <t>nrj_ww_KJ_g</t>
   </si>
 </sst>
 </file>
@@ -633,10 +633,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="590" activePane="bottomLeft"/>
       <selection activeCell="K2" sqref="K2"/>
-      <selection pane="bottomLeft" activeCell="H142" sqref="H142"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -680,16 +680,16 @@
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>23</v>
@@ -698,7 +698,7 @@
         <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
@@ -1252,7 +1252,7 @@
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -1886,16 +1886,16 @@
     </row>
     <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
         <v>31</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
         <v>32</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" t="s">
-        <v>33</v>
       </c>
       <c r="H56">
         <v>143</v>
@@ -1912,16 +1912,16 @@
     </row>
     <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
         <v>31</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
         <v>32</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>33</v>
       </c>
       <c r="H57">
         <v>733</v>
@@ -1938,16 +1938,16 @@
     </row>
     <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
         <v>31</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
         <v>32</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" t="s">
-        <v>33</v>
       </c>
       <c r="H58">
         <v>104</v>
@@ -1964,16 +1964,16 @@
     </row>
     <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
         <v>31</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
         <v>32</v>
-      </c>
-      <c r="C59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" t="s">
-        <v>33</v>
       </c>
       <c r="H59">
         <v>321</v>
@@ -1990,16 +1990,16 @@
     </row>
     <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
         <v>31</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s">
         <v>32</v>
-      </c>
-      <c r="C60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" t="s">
-        <v>33</v>
       </c>
       <c r="H60">
         <v>560</v>
@@ -2016,16 +2016,16 @@
     </row>
     <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
         <v>31</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
         <v>32</v>
-      </c>
-      <c r="C61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" t="s">
-        <v>33</v>
       </c>
       <c r="H61">
         <v>220</v>
@@ -2042,16 +2042,16 @@
     </row>
     <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
         <v>31</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="s">
         <v>32</v>
-      </c>
-      <c r="C62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" t="s">
-        <v>33</v>
       </c>
       <c r="H62">
         <v>23.8</v>
@@ -2068,16 +2068,16 @@
     </row>
     <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
         <v>31</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
         <v>32</v>
-      </c>
-      <c r="C63" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" t="s">
-        <v>33</v>
       </c>
       <c r="H63">
         <v>23.2</v>
@@ -2094,16 +2094,16 @@
     </row>
     <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
         <v>31</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
         <v>32</v>
-      </c>
-      <c r="C64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" t="s">
-        <v>33</v>
       </c>
       <c r="H64">
         <v>0.3</v>
@@ -2111,16 +2111,16 @@
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
         <v>31</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
         <v>32</v>
-      </c>
-      <c r="C65" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" t="s">
-        <v>33</v>
       </c>
       <c r="H65">
         <v>182</v>
@@ -2128,16 +2128,16 @@
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
         <v>31</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" t="s">
         <v>32</v>
-      </c>
-      <c r="C66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" t="s">
-        <v>33</v>
       </c>
       <c r="H66">
         <v>762</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
         <v>31</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
         <v>32</v>
-      </c>
-      <c r="C67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" t="s">
-        <v>33</v>
       </c>
       <c r="H67">
         <v>36.6</v>
@@ -2162,16 +2162,16 @@
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
         <v>31</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" t="s">
         <v>32</v>
-      </c>
-      <c r="C68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" t="s">
-        <v>33</v>
       </c>
       <c r="H68">
         <v>25.1</v>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
         <v>31</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
         <v>32</v>
-      </c>
-      <c r="C69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69" t="s">
-        <v>33</v>
       </c>
       <c r="H69">
         <v>31</v>
@@ -2214,16 +2214,16 @@
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
         <v>31</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" t="s">
         <v>32</v>
-      </c>
-      <c r="C70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" t="s">
-        <v>33</v>
       </c>
       <c r="H70">
         <v>102</v>
@@ -2240,16 +2240,16 @@
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
         <v>54</v>
       </c>
-      <c r="B71" t="s">
-        <v>55</v>
-      </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H71">
         <v>940</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
         <v>54</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>55</v>
       </c>
-      <c r="C72" t="s">
-        <v>56</v>
-      </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H72">
         <v>114</v>
@@ -2274,16 +2274,16 @@
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" t="s">
         <v>54</v>
       </c>
-      <c r="B73" t="s">
-        <v>55</v>
-      </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H73">
         <v>159</v>
@@ -2291,16 +2291,16 @@
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" t="s">
         <v>54</v>
       </c>
-      <c r="B74" t="s">
-        <v>55</v>
-      </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H74">
         <v>248</v>
@@ -2308,16 +2308,16 @@
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" t="s">
         <v>54</v>
       </c>
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H75">
         <v>151</v>
@@ -2325,16 +2325,16 @@
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" t="s">
         <v>54</v>
       </c>
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H76">
         <v>348</v>
@@ -2342,16 +2342,16 @@
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" t="s">
         <v>54</v>
       </c>
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H77">
         <v>966</v>
@@ -2359,16 +2359,16 @@
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" t="s">
         <v>54</v>
       </c>
-      <c r="B78" t="s">
-        <v>55</v>
-      </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H78">
         <v>159</v>
@@ -2376,16 +2376,16 @@
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
         <v>54</v>
       </c>
-      <c r="B79" t="s">
-        <v>55</v>
-      </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H79">
         <v>37.1</v>
@@ -2393,16 +2393,16 @@
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" t="s">
         <v>54</v>
       </c>
-      <c r="B80" t="s">
-        <v>55</v>
-      </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H80">
         <v>341</v>
@@ -2410,16 +2410,16 @@
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" t="s">
         <v>54</v>
       </c>
-      <c r="B81" t="s">
-        <v>55</v>
-      </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H81">
         <v>62.2</v>
@@ -2427,16 +2427,16 @@
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" t="s">
         <v>54</v>
       </c>
-      <c r="B82" t="s">
-        <v>55</v>
-      </c>
       <c r="C82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -2444,16 +2444,16 @@
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" t="s">
         <v>54</v>
       </c>
-      <c r="B83" t="s">
-        <v>55</v>
-      </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H83">
         <v>1119</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" t="s">
         <v>54</v>
       </c>
-      <c r="B84" t="s">
-        <v>55</v>
-      </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H84">
         <v>267</v>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" t="s">
         <v>54</v>
       </c>
-      <c r="B85" t="s">
-        <v>55</v>
-      </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H85">
         <v>448</v>
@@ -2495,16 +2495,16 @@
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" t="s">
         <v>54</v>
       </c>
-      <c r="B86" t="s">
-        <v>55</v>
-      </c>
       <c r="C86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" t="s">
         <v>52</v>
-      </c>
-      <c r="D86" t="s">
-        <v>53</v>
       </c>
       <c r="H86">
         <v>229</v>
@@ -2512,16 +2512,16 @@
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" t="s">
         <v>54</v>
       </c>
-      <c r="B87" t="s">
-        <v>55</v>
-      </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H87">
         <v>389</v>
@@ -2529,16 +2529,16 @@
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" t="s">
         <v>54</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>55</v>
       </c>
-      <c r="C88" t="s">
-        <v>56</v>
-      </c>
       <c r="D88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H88">
         <v>89.5</v>
@@ -2546,16 +2546,16 @@
     </row>
     <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
         <v>54</v>
       </c>
-      <c r="B89" t="s">
-        <v>55</v>
-      </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H89">
         <v>124</v>
@@ -2563,16 +2563,16 @@
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
         <v>54</v>
       </c>
-      <c r="B90" t="s">
-        <v>55</v>
-      </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H90">
         <v>138</v>
@@ -2580,16 +2580,16 @@
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" t="s">
         <v>54</v>
       </c>
-      <c r="B91" t="s">
-        <v>55</v>
-      </c>
       <c r="C91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H91">
         <v>160</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" t="s">
         <v>54</v>
       </c>
-      <c r="B92" t="s">
-        <v>55</v>
-      </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H92">
         <v>319</v>
@@ -2614,16 +2614,16 @@
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" t="s">
         <v>54</v>
       </c>
-      <c r="B93" t="s">
-        <v>55</v>
-      </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H93">
         <v>711</v>
@@ -2631,16 +2631,16 @@
     </row>
     <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" t="s">
         <v>54</v>
       </c>
-      <c r="B94" t="s">
-        <v>55</v>
-      </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H94">
         <v>618</v>
@@ -2648,16 +2648,16 @@
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" t="s">
         <v>54</v>
       </c>
-      <c r="B95" t="s">
-        <v>55</v>
-      </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H95">
         <v>7</v>
@@ -2665,16 +2665,16 @@
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" t="s">
         <v>54</v>
       </c>
-      <c r="B96" t="s">
-        <v>55</v>
-      </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H96">
         <v>22.7</v>
@@ -2682,16 +2682,16 @@
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" t="s">
         <v>54</v>
       </c>
-      <c r="B97" t="s">
-        <v>55</v>
-      </c>
       <c r="C97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H97">
         <v>14</v>
@@ -2699,16 +2699,16 @@
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" t="s">
         <v>54</v>
       </c>
-      <c r="B98" t="s">
-        <v>55</v>
-      </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H98">
         <v>4.9000000000000004</v>
@@ -2716,16 +2716,16 @@
     </row>
     <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" t="s">
         <v>54</v>
       </c>
-      <c r="B99" t="s">
-        <v>55</v>
-      </c>
       <c r="C99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H99">
         <v>599</v>
@@ -2733,16 +2733,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" t="s">
         <v>54</v>
       </c>
-      <c r="B100" t="s">
-        <v>55</v>
-      </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H100">
         <v>237</v>
@@ -2750,16 +2750,16 @@
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" t="s">
         <v>54</v>
       </c>
-      <c r="B101" t="s">
-        <v>55</v>
-      </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H101">
         <v>327</v>
@@ -2767,16 +2767,16 @@
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" t="s">
         <v>54</v>
       </c>
-      <c r="B102" t="s">
-        <v>55</v>
-      </c>
       <c r="C102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
         <v>52</v>
-      </c>
-      <c r="D102" t="s">
-        <v>53</v>
       </c>
       <c r="H102">
         <v>141</v>
@@ -2784,16 +2784,16 @@
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" t="s">
         <v>54</v>
       </c>
-      <c r="B103" t="s">
-        <v>55</v>
-      </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H103">
         <v>403</v>
@@ -2801,44 +2801,44 @@
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" t="s">
         <v>54</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>55</v>
       </c>
-      <c r="C104" t="s">
-        <v>56</v>
-      </c>
       <c r="D104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" t="s">
         <v>54</v>
       </c>
-      <c r="B105" t="s">
-        <v>55</v>
-      </c>
       <c r="C105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" t="s">
         <v>54</v>
       </c>
-      <c r="B106" t="s">
-        <v>55</v>
-      </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H106">
         <v>222</v>
@@ -2846,16 +2846,16 @@
     </row>
     <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" t="s">
         <v>54</v>
       </c>
-      <c r="B107" t="s">
-        <v>55</v>
-      </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H107">
         <v>140</v>
@@ -2863,16 +2863,16 @@
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" t="s">
         <v>54</v>
       </c>
-      <c r="B108" t="s">
-        <v>55</v>
-      </c>
       <c r="C108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H108">
         <v>234</v>
@@ -2880,16 +2880,16 @@
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" t="s">
         <v>54</v>
       </c>
-      <c r="B109" t="s">
-        <v>55</v>
-      </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H109">
         <v>351</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" t="s">
         <v>54</v>
       </c>
-      <c r="B110" t="s">
-        <v>55</v>
-      </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H110">
         <v>359</v>
@@ -2914,16 +2914,16 @@
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" t="s">
         <v>54</v>
       </c>
-      <c r="B111" t="s">
-        <v>55</v>
-      </c>
       <c r="C111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H111">
         <v>33.700000000000003</v>
@@ -2931,16 +2931,16 @@
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" t="s">
         <v>54</v>
       </c>
-      <c r="B112" t="s">
-        <v>55</v>
-      </c>
       <c r="C112" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H112">
         <v>18.2</v>
@@ -2948,16 +2948,16 @@
     </row>
     <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" t="s">
         <v>54</v>
       </c>
-      <c r="B113" t="s">
-        <v>55</v>
-      </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H113">
         <v>59</v>
@@ -2965,16 +2965,16 @@
     </row>
     <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" t="s">
         <v>54</v>
       </c>
-      <c r="B114" t="s">
-        <v>55</v>
-      </c>
       <c r="C114" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H114">
         <v>35.5</v>
@@ -2982,16 +2982,16 @@
     </row>
     <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" t="s">
         <v>54</v>
       </c>
-      <c r="B115" t="s">
-        <v>55</v>
-      </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H115">
         <v>497</v>
@@ -2999,16 +2999,16 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" t="s">
         <v>54</v>
       </c>
-      <c r="B116" t="s">
-        <v>55</v>
-      </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H116">
         <v>146</v>
@@ -3016,16 +3016,16 @@
     </row>
     <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" t="s">
         <v>54</v>
       </c>
-      <c r="B117" t="s">
-        <v>55</v>
-      </c>
       <c r="C117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H117">
         <v>178</v>
@@ -3033,16 +3033,16 @@
     </row>
     <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" t="s">
         <v>54</v>
       </c>
-      <c r="B118" t="s">
-        <v>55</v>
-      </c>
       <c r="C118" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" t="s">
         <v>52</v>
-      </c>
-      <c r="D118" t="s">
-        <v>53</v>
       </c>
       <c r="H118">
         <v>229</v>
@@ -3050,16 +3050,16 @@
     </row>
     <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G119">
         <v>620</v>
@@ -3086,16 +3086,16 @@
     </row>
     <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G120">
         <v>1310</v>
@@ -3122,16 +3122,16 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" t="s">
         <v>31</v>
       </c>
-      <c r="B121" t="s">
-        <v>32</v>
-      </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G121">
         <v>720</v>
@@ -3158,16 +3158,16 @@
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" t="s">
         <v>31</v>
       </c>
-      <c r="B122" t="s">
-        <v>32</v>
-      </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G122">
         <v>2660</v>
@@ -3194,16 +3194,16 @@
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D123" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G123">
         <f>780</f>
@@ -3231,16 +3231,16 @@
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D124" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G124">
         <f>1880</f>
@@ -3268,16 +3268,16 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B125" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
         <v>62</v>
-      </c>
-      <c r="C125" t="s">
-        <v>34</v>
-      </c>
-      <c r="D125" t="s">
-        <v>63</v>
       </c>
       <c r="G125">
         <v>570</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
         <v>62</v>
-      </c>
-      <c r="C126" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" t="s">
-        <v>63</v>
       </c>
       <c r="G126">
         <v>12600</v>
@@ -3340,16 +3340,16 @@
     </row>
     <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
         <v>62</v>
-      </c>
-      <c r="C127" t="s">
-        <v>39</v>
-      </c>
-      <c r="D127" t="s">
-        <v>63</v>
       </c>
       <c r="G127">
         <v>460</v>
@@ -3376,16 +3376,16 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D128" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G128">
         <v>690</v>
@@ -3412,16 +3412,16 @@
     </row>
     <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B129" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G129">
         <v>2630</v>
@@ -3448,16 +3448,16 @@
     </row>
     <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D130" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G130">
         <v>600</v>
@@ -3484,16 +3484,16 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131" t="s">
         <v>54</v>
       </c>
-      <c r="B131" t="s">
-        <v>55</v>
-      </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D131" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G131">
         <v>1100</v>
@@ -3520,16 +3520,16 @@
     </row>
     <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132" t="s">
         <v>54</v>
       </c>
-      <c r="B132" t="s">
-        <v>55</v>
-      </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G132">
         <v>2220</v>
@@ -3556,16 +3556,16 @@
     </row>
     <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133" t="s">
         <v>54</v>
       </c>
-      <c r="B133" t="s">
-        <v>55</v>
-      </c>
       <c r="C133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G133">
         <v>440</v>
@@ -3592,16 +3592,16 @@
     </row>
     <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
         <v>31</v>
       </c>
-      <c r="B134" t="s">
-        <v>32</v>
-      </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H134">
         <v>565</v>
@@ -3612,16 +3612,16 @@
     </row>
     <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" t="s">
         <v>31</v>
       </c>
-      <c r="B135" t="s">
-        <v>32</v>
-      </c>
       <c r="C135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H135">
         <v>112.9</v>
@@ -3632,16 +3632,16 @@
     </row>
     <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" t="s">
         <v>31</v>
       </c>
-      <c r="B136" t="s">
-        <v>32</v>
-      </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H136">
         <v>68.8</v>
@@ -3652,16 +3652,16 @@
     </row>
     <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" t="s">
         <v>31</v>
       </c>
-      <c r="B137" t="s">
-        <v>32</v>
-      </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H137">
         <v>37.799999999999997</v>
@@ -3672,16 +3672,16 @@
     </row>
     <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" t="s">
         <v>31</v>
       </c>
-      <c r="B138" t="s">
-        <v>32</v>
-      </c>
       <c r="C138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H138">
         <v>88.2</v>
@@ -3692,16 +3692,16 @@
     </row>
     <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" t="s">
         <v>31</v>
       </c>
-      <c r="B139" t="s">
-        <v>32</v>
-      </c>
       <c r="C139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D139" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H139">
         <v>759.1</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" t="s">
         <v>31</v>
       </c>
-      <c r="B140" t="s">
-        <v>32</v>
-      </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D140" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H140">
         <v>635.1</v>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" t="s">
         <v>31</v>
       </c>
-      <c r="B141" t="s">
-        <v>32</v>
-      </c>
       <c r="C141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D141" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H141">
         <v>279.60000000000002</v>
@@ -3752,16 +3752,16 @@
     </row>
     <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142" t="s">
         <v>31</v>
       </c>
-      <c r="B142" t="s">
-        <v>32</v>
-      </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D142" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H142">
         <v>298.2</v>
@@ -3772,16 +3772,16 @@
     </row>
     <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" t="s">
         <v>31</v>
       </c>
-      <c r="B143" t="s">
-        <v>32</v>
-      </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H143">
         <v>140.4</v>
@@ -3792,16 +3792,16 @@
     </row>
     <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" t="s">
         <v>31</v>
       </c>
-      <c r="B144" t="s">
-        <v>32</v>
-      </c>
       <c r="C144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H144">
         <v>107.3</v>
@@ -3812,16 +3812,16 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>30</v>
+      </c>
+      <c r="B145" t="s">
         <v>31</v>
       </c>
-      <c r="B145" t="s">
-        <v>32</v>
-      </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H145">
         <v>44.3</v>
@@ -3832,16 +3832,16 @@
     </row>
     <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B146" t="s">
+        <v>65</v>
+      </c>
+      <c r="C146" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" t="s">
         <v>66</v>
-      </c>
-      <c r="C146" t="s">
-        <v>41</v>
-      </c>
-      <c r="D146" t="s">
-        <v>67</v>
       </c>
       <c r="G146">
         <v>77.599999999999994</v>
@@ -3860,16 +3860,16 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B147" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" t="s">
         <v>66</v>
-      </c>
-      <c r="C147" t="s">
-        <v>41</v>
-      </c>
-      <c r="D147" t="s">
-        <v>67</v>
       </c>
       <c r="G147">
         <v>35.130000000000003</v>
@@ -3888,16 +3888,16 @@
     </row>
     <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" t="s">
         <v>66</v>
-      </c>
-      <c r="C148" t="s">
-        <v>41</v>
-      </c>
-      <c r="D148" t="s">
-        <v>67</v>
       </c>
       <c r="G148">
         <v>69.45</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
+        <v>65</v>
+      </c>
+      <c r="C149" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" t="s">
         <v>66</v>
-      </c>
-      <c r="C149" t="s">
-        <v>41</v>
-      </c>
-      <c r="D149" t="s">
-        <v>67</v>
       </c>
       <c r="G149">
         <v>39.090000000000003</v>
@@ -3944,16 +3944,16 @@
     </row>
     <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B150" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G150">
         <v>126.28</v>
@@ -3972,16 +3972,16 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G151">
         <v>32.06</v>
@@ -4000,16 +4000,16 @@
     </row>
     <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B152" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D152" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G152">
         <v>164.26</v>
@@ -4028,16 +4028,16 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G153">
         <v>22.47</v>
@@ -4056,16 +4056,16 @@
     </row>
     <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" t="s">
         <v>31</v>
       </c>
-      <c r="B154" t="s">
-        <v>32</v>
-      </c>
       <c r="C154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G154">
         <v>59.74</v>
@@ -4084,16 +4084,16 @@
     </row>
     <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" t="s">
         <v>31</v>
       </c>
-      <c r="B155" t="s">
-        <v>32</v>
-      </c>
       <c r="C155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G155">
         <v>23.37</v>
@@ -4112,16 +4112,16 @@
     </row>
     <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156" t="s">
         <v>31</v>
       </c>
-      <c r="B156" t="s">
-        <v>32</v>
-      </c>
       <c r="C156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D156" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G156">
         <v>27.98</v>
@@ -4140,16 +4140,16 @@
     </row>
     <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B157" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D157" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G157">
         <v>2869.46</v>
@@ -4168,16 +4168,16 @@
     </row>
     <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D158" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G158">
         <v>4002.21</v>
@@ -4196,16 +4196,16 @@
     </row>
     <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" t="s">
         <v>31</v>
       </c>
-      <c r="B159" t="s">
-        <v>32</v>
-      </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D159" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G159">
         <v>2040.44</v>
@@ -4220,16 +4220,16 @@
     </row>
     <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D160" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G160">
         <v>1820.42</v>
@@ -4248,16 +4248,16 @@
     </row>
     <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>30</v>
+      </c>
+      <c r="B161" t="s">
         <v>31</v>
       </c>
-      <c r="B161" t="s">
-        <v>32</v>
-      </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D161" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G161">
         <v>1405.87</v>
@@ -4276,16 +4276,16 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D162" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G162">
         <v>824.59</v>
@@ -4304,16 +4304,16 @@
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D163" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G163">
         <v>362.83</v>
@@ -4332,16 +4332,16 @@
     </row>
     <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" t="s">
         <v>31</v>
       </c>
-      <c r="B164" t="s">
-        <v>32</v>
-      </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D164" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G164">
         <v>531.94000000000005</v>
@@ -4356,16 +4356,16 @@
     </row>
     <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D165" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G165">
         <v>669.58</v>
@@ -4384,16 +4384,16 @@
     </row>
     <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" t="s">
         <v>31</v>
       </c>
-      <c r="B166" t="s">
-        <v>32</v>
-      </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D166" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G166">
         <v>625.69000000000005</v>
@@ -4412,16 +4412,16 @@
     </row>
     <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B167" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D167" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G167">
         <v>486.14</v>
@@ -4440,16 +4440,16 @@
     </row>
     <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B168" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G168">
         <v>220.16</v>
@@ -4468,16 +4468,16 @@
     </row>
     <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169" t="s">
         <v>31</v>
       </c>
-      <c r="B169" t="s">
-        <v>32</v>
-      </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D169" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G169">
         <v>423.43</v>
@@ -4492,16 +4492,16 @@
     </row>
     <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B170" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D170" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G170">
         <v>480.71</v>
@@ -4520,16 +4520,16 @@
     </row>
     <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" t="s">
         <v>31</v>
       </c>
-      <c r="B171" t="s">
-        <v>32</v>
-      </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D171" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G171">
         <v>595.83000000000004</v>
@@ -4548,16 +4548,16 @@
     </row>
     <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B172" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G172">
         <v>70.03</v>
@@ -4576,16 +4576,16 @@
     </row>
     <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B173" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D173" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G173">
         <v>44.08</v>
@@ -4604,16 +4604,16 @@
     </row>
     <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174" t="s">
         <v>31</v>
       </c>
-      <c r="B174" t="s">
-        <v>32</v>
-      </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D174" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G174">
         <v>44.12</v>
@@ -4628,16 +4628,16 @@
     </row>
     <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D175" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G175">
         <v>56.06</v>
@@ -4656,16 +4656,16 @@
     </row>
     <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>30</v>
+      </c>
+      <c r="B176" t="s">
         <v>31</v>
       </c>
-      <c r="B176" t="s">
-        <v>32</v>
-      </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D176" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G176">
         <v>12.58</v>
@@ -4680,16 +4680,16 @@
     </row>
     <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B177" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D177" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G177">
         <v>16.61</v>
@@ -4708,16 +4708,16 @@
     </row>
     <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B178" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D178" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G178">
         <v>29.74</v>
@@ -4736,16 +4736,16 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" t="s">
         <v>31</v>
       </c>
-      <c r="B179" t="s">
-        <v>32</v>
-      </c>
       <c r="C179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D179" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G179">
         <v>15.28</v>
@@ -4760,16 +4760,16 @@
     </row>
     <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B180" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D180" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G180">
         <v>20.22</v>
@@ -4788,16 +4788,16 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>30</v>
+      </c>
+      <c r="B181" t="s">
         <v>31</v>
       </c>
-      <c r="B181" t="s">
-        <v>32</v>
-      </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D181" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G181">
         <v>4.29</v>
@@ -4816,16 +4816,16 @@
     </row>
     <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B182" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D182" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G182">
         <v>854.55</v>
@@ -4844,16 +4844,16 @@
     </row>
     <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B183" t="s">
         <v>31</v>
       </c>
-      <c r="B183" t="s">
-        <v>32</v>
-      </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D183" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G183">
         <v>1364.01</v>
@@ -4872,16 +4872,16 @@
     </row>
     <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B184" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D184" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G184">
         <v>2075.44</v>
@@ -4900,16 +4900,16 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B185" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D185" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G185">
         <v>302.35000000000002</v>
@@ -4928,16 +4928,16 @@
     </row>
     <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>30</v>
+      </c>
+      <c r="B186" t="s">
         <v>31</v>
       </c>
-      <c r="B186" t="s">
-        <v>32</v>
-      </c>
       <c r="C186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D186" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G186">
         <v>327.02999999999997</v>
@@ -4956,16 +4956,16 @@
     </row>
     <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B187" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D187" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G187">
         <v>397.49</v>
@@ -4984,16 +4984,16 @@
     </row>
     <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B188" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D188" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G188">
         <v>180.07</v>
@@ -5012,16 +5012,16 @@
     </row>
     <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>30</v>
+      </c>
+      <c r="B189" t="s">
         <v>31</v>
       </c>
-      <c r="B189" t="s">
-        <v>32</v>
-      </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D189" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G189">
         <v>154.97</v>
@@ -5040,16 +5040,16 @@
     </row>
     <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B190" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D190" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G190">
         <v>328.59</v>
@@ -5068,16 +5068,16 @@
     </row>
     <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B191" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C191" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D191" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G191">
         <v>154.13</v>
@@ -5092,16 +5092,16 @@
     </row>
     <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" t="s">
         <v>31</v>
       </c>
-      <c r="B192" t="s">
-        <v>32</v>
-      </c>
       <c r="C192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D192" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G192">
         <v>78.67</v>
@@ -5120,16 +5120,16 @@
     </row>
     <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B193" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D193" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G193">
         <v>117.49</v>
@@ -5149,16 +5149,16 @@
     </row>
     <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B194" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D194" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G194">
         <v>42.85</v>
@@ -5177,16 +5177,16 @@
     </row>
     <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>30</v>
+      </c>
+      <c r="B195" t="s">
         <v>31</v>
       </c>
-      <c r="B195" t="s">
-        <v>32</v>
-      </c>
       <c r="C195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D195" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G195">
         <v>79.8</v>
@@ -5205,16 +5205,16 @@
     </row>
     <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B196" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D196" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G196">
         <v>173.86</v>
@@ -5233,16 +5233,16 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B197" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D197" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H197">
         <v>118</v>
@@ -5259,16 +5259,16 @@
     </row>
     <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B198" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D198" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H198">
         <v>376</v>
@@ -5285,16 +5285,16 @@
     </row>
     <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B199" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D199" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H199">
         <v>74.7</v>
@@ -5311,16 +5311,16 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B200" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D200" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H200">
         <v>108</v>
@@ -5337,16 +5337,16 @@
     </row>
     <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B201" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H201">
         <v>351</v>
@@ -5363,16 +5363,16 @@
     </row>
     <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B202" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D202" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H202">
         <v>97.6</v>
@@ -5389,13 +5389,13 @@
     </row>
     <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B203" t="s">
+        <v>71</v>
+      </c>
+      <c r="D203" t="s">
         <v>72</v>
-      </c>
-      <c r="D203" t="s">
-        <v>73</v>
       </c>
       <c r="G203">
         <v>1800</v>
@@ -5415,16 +5415,16 @@
     </row>
     <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B204" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H204">
         <v>4000</v>
@@ -5441,16 +5441,16 @@
     </row>
     <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B205" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D205" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H205">
         <v>900</v>
@@ -5467,16 +5467,16 @@
     </row>
     <row r="206" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B206" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D206" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H206">
         <v>900</v>
@@ -5493,16 +5493,16 @@
     </row>
     <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B207" t="s">
+        <v>74</v>
+      </c>
+      <c r="C207" t="s">
+        <v>34</v>
+      </c>
+      <c r="D207" t="s">
         <v>75</v>
-      </c>
-      <c r="C207" t="s">
-        <v>35</v>
-      </c>
-      <c r="D207" t="s">
-        <v>76</v>
       </c>
       <c r="H207">
         <v>1100</v>
@@ -5516,16 +5516,16 @@
     </row>
     <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B208" t="s">
+        <v>74</v>
+      </c>
+      <c r="C208" t="s">
+        <v>34</v>
+      </c>
+      <c r="D208" t="s">
         <v>75</v>
-      </c>
-      <c r="C208" t="s">
-        <v>35</v>
-      </c>
-      <c r="D208" t="s">
-        <v>76</v>
       </c>
       <c r="H208">
         <v>700</v>
@@ -5542,16 +5542,16 @@
     </row>
     <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B209" t="s">
+        <v>74</v>
+      </c>
+      <c r="C209" t="s">
+        <v>34</v>
+      </c>
+      <c r="D209" t="s">
         <v>75</v>
-      </c>
-      <c r="C209" t="s">
-        <v>35</v>
-      </c>
-      <c r="D209" t="s">
-        <v>76</v>
       </c>
       <c r="H209">
         <v>1000</v>
@@ -5568,16 +5568,16 @@
     </row>
     <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B210" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C210" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D210" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H210">
         <v>100</v>
@@ -5594,16 +5594,16 @@
     </row>
     <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B211" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D211" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H211">
         <v>180</v>
@@ -5620,16 +5620,16 @@
     </row>
     <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B212" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D212" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H212">
         <v>130</v>
@@ -5646,16 +5646,16 @@
     </row>
     <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B213" t="s">
+        <v>74</v>
+      </c>
+      <c r="C213" t="s">
+        <v>38</v>
+      </c>
+      <c r="D213" t="s">
         <v>75</v>
-      </c>
-      <c r="C213" t="s">
-        <v>39</v>
-      </c>
-      <c r="D213" t="s">
-        <v>76</v>
       </c>
       <c r="H213">
         <v>80</v>
@@ -5669,16 +5669,16 @@
     </row>
     <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B214" t="s">
+        <v>74</v>
+      </c>
+      <c r="C214" t="s">
+        <v>38</v>
+      </c>
+      <c r="D214" t="s">
         <v>75</v>
-      </c>
-      <c r="C214" t="s">
-        <v>39</v>
-      </c>
-      <c r="D214" t="s">
-        <v>76</v>
       </c>
       <c r="H214">
         <v>190</v>
@@ -5695,16 +5695,16 @@
     </row>
     <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B215" t="s">
+        <v>74</v>
+      </c>
+      <c r="C215" t="s">
+        <v>38</v>
+      </c>
+      <c r="D215" t="s">
         <v>75</v>
-      </c>
-      <c r="C215" t="s">
-        <v>39</v>
-      </c>
-      <c r="D215" t="s">
-        <v>76</v>
       </c>
       <c r="H215">
         <v>120</v>
@@ -5721,16 +5721,16 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B216" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D216" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H216">
         <v>170</v>
@@ -5747,16 +5747,16 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B217" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D217" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H217">
         <v>240</v>
@@ -5773,16 +5773,16 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B218" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D218" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H218">
         <v>260</v>
@@ -5799,16 +5799,16 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B219" t="s">
+        <v>74</v>
+      </c>
+      <c r="C219" t="s">
+        <v>33</v>
+      </c>
+      <c r="D219" t="s">
         <v>75</v>
-      </c>
-      <c r="C219" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" t="s">
-        <v>76</v>
       </c>
       <c r="H219">
         <v>138</v>
@@ -5822,16 +5822,16 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B220" t="s">
+        <v>74</v>
+      </c>
+      <c r="C220" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220" t="s">
         <v>75</v>
-      </c>
-      <c r="C220" t="s">
-        <v>34</v>
-      </c>
-      <c r="D220" t="s">
-        <v>76</v>
       </c>
       <c r="H220">
         <v>200</v>
@@ -5848,16 +5848,16 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B221" t="s">
+        <v>74</v>
+      </c>
+      <c r="C221" t="s">
+        <v>33</v>
+      </c>
+      <c r="D221" t="s">
         <v>75</v>
-      </c>
-      <c r="C221" t="s">
-        <v>34</v>
-      </c>
-      <c r="D221" t="s">
-        <v>76</v>
       </c>
       <c r="H221">
         <v>260</v>

--- a/data/Fe_in_preys.xlsx
+++ b/data/Fe_in_preys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023\Analyses\FeSthOpinn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79983658-EC31-4BBB-8D54-9AC30F017DFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1393FEC5-0CA7-440F-898F-F7CF0E051BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{B1A347AD-4986-41BD-9500-4E54C6029C2E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil2!$A$1:$N$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil2!$A$1:$N$219</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="77">
   <si>
     <t>Species</t>
   </si>
@@ -630,13 +630,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B911817D-DC41-417E-B597-CEE4D85C7D4A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N221"/>
+  <dimension ref="A1:N219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="590" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="590" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="K2" sqref="K2"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,7 +653,7 @@
     <col min="11" max="11" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -701,7 +700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -725,7 +724,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -749,7 +748,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -773,7 +772,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -797,7 +796,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -821,7 +820,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -845,7 +844,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -869,7 +868,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -893,7 +892,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -917,7 +916,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -941,7 +940,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -965,7 +964,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -989,7 +988,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1198,7 +1197,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1298,7 +1297,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1565,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1587,7 +1586,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1650,7 +1649,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>4.6648800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -1842,7 +1841,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -1856,7 +1855,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>4.6455000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -2160,7 +2159,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -2212,7 +2211,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -2442,7 +2441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>53</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>53</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>53</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>53</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>53</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>53</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>53</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>53</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>53</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>53</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>53</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -2807,13 +2806,16 @@
         <v>54</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H104">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>53</v>
       </c>
@@ -2821,13 +2823,16 @@
         <v>54</v>
       </c>
       <c r="C105" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D105" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H105">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>53</v>
       </c>
@@ -2835,16 +2840,16 @@
         <v>54</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D106" t="s">
         <v>52</v>
       </c>
       <c r="H106">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>53</v>
       </c>
@@ -2852,16 +2857,16 @@
         <v>54</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D107" t="s">
         <v>52</v>
       </c>
       <c r="H107">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>53</v>
       </c>
@@ -2869,16 +2874,16 @@
         <v>54</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
         <v>52</v>
       </c>
       <c r="H108">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>53</v>
       </c>
@@ -2886,16 +2891,16 @@
         <v>54</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D109" t="s">
         <v>52</v>
       </c>
       <c r="H109">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>53</v>
       </c>
@@ -2903,16 +2908,16 @@
         <v>54</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D110" t="s">
         <v>52</v>
       </c>
       <c r="H110">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>53</v>
       </c>
@@ -2920,16 +2925,16 @@
         <v>54</v>
       </c>
       <c r="C111" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D111" t="s">
         <v>52</v>
       </c>
       <c r="H111">
-        <v>33.700000000000003</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>53</v>
       </c>
@@ -2937,16 +2942,16 @@
         <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D112" t="s">
         <v>52</v>
       </c>
       <c r="H112">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>53</v>
       </c>
@@ -2954,16 +2959,16 @@
         <v>54</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D113" t="s">
         <v>52</v>
       </c>
       <c r="H113">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>53</v>
       </c>
@@ -2971,16 +2976,16 @@
         <v>54</v>
       </c>
       <c r="C114" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
         <v>52</v>
       </c>
       <c r="H114">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>53</v>
       </c>
@@ -2988,13 +2993,13 @@
         <v>54</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D115" t="s">
         <v>52</v>
       </c>
       <c r="H115">
-        <v>497</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
@@ -3005,55 +3010,93 @@
         <v>54</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D116" t="s">
         <v>52</v>
       </c>
       <c r="H116">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="G117">
+        <v>620</v>
       </c>
       <c r="H117">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <f>G117*0.2</f>
+        <v>124</v>
+      </c>
+      <c r="I117">
+        <f>40*0.2</f>
+        <v>8</v>
+      </c>
+      <c r="J117">
+        <f>570*0.2</f>
+        <v>114</v>
+      </c>
+      <c r="K117">
+        <f>660*0.2</f>
+        <v>132</v>
+      </c>
+      <c r="L117">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="G118">
+        <v>1310</v>
       </c>
       <c r="H118">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <f>G118*0.2</f>
+        <v>262</v>
+      </c>
+      <c r="I118">
+        <f>130*0.2</f>
+        <v>26</v>
+      </c>
+      <c r="J118">
+        <f>1170*0.2</f>
+        <v>234</v>
+      </c>
+      <c r="K118">
+        <f>1500*0.2</f>
+        <v>300</v>
+      </c>
+      <c r="L118">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
         <v>33</v>
@@ -3062,34 +3105,34 @@
         <v>59</v>
       </c>
       <c r="G119">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="H119">
-        <f>G119*0.2</f>
-        <v>124</v>
+        <f>720*0.2</f>
+        <v>144</v>
       </c>
       <c r="I119">
-        <f>40*0.2</f>
-        <v>8</v>
+        <f>170*0.2</f>
+        <v>34</v>
       </c>
       <c r="J119">
-        <f>570*0.2</f>
-        <v>114</v>
+        <f>370*0.2</f>
+        <v>74</v>
       </c>
       <c r="K119">
-        <f>660*0.2</f>
-        <v>132</v>
+        <f>960*0.2</f>
+        <v>192</v>
       </c>
       <c r="L119">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>30</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
         <v>34</v>
@@ -3098,34 +3141,34 @@
         <v>59</v>
       </c>
       <c r="G120">
-        <v>1310</v>
+        <v>2660</v>
       </c>
       <c r="H120">
-        <f>G120*0.2</f>
-        <v>262</v>
+        <f t="shared" ref="H120:H131" si="2">G120*0.2</f>
+        <v>532</v>
       </c>
       <c r="I120">
-        <f>130*0.2</f>
-        <v>26</v>
+        <f>100*0.2</f>
+        <v>20</v>
       </c>
       <c r="J120">
-        <f>1170*0.2</f>
-        <v>234</v>
+        <f>2400*0.2</f>
+        <v>480</v>
       </c>
       <c r="K120">
-        <f>1500*0.2</f>
-        <v>300</v>
+        <f>2720*0.2</f>
+        <v>544</v>
       </c>
       <c r="L120">
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>30</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
         <v>33</v>
@@ -3134,34 +3177,35 @@
         <v>59</v>
       </c>
       <c r="G121">
-        <v>720</v>
+        <f>780</f>
+        <v>780</v>
       </c>
       <c r="H121">
-        <f>720*0.2</f>
-        <v>144</v>
+        <f t="shared" si="2"/>
+        <v>156</v>
       </c>
       <c r="I121">
-        <f>170*0.2</f>
-        <v>34</v>
+        <f>90*0.2</f>
+        <v>18</v>
       </c>
       <c r="J121">
-        <f>370*0.2</f>
-        <v>74</v>
+        <f>650*0.2</f>
+        <v>130</v>
       </c>
       <c r="K121">
-        <f>960*0.2</f>
-        <v>192</v>
+        <f>870*0.2</f>
+        <v>174</v>
       </c>
       <c r="L121">
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>30</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C122" t="s">
         <v>34</v>
@@ -3170,97 +3214,96 @@
         <v>59</v>
       </c>
       <c r="G122">
-        <v>2660</v>
+        <f>1880</f>
+        <v>1880</v>
       </c>
       <c r="H122">
-        <f t="shared" ref="H122:H133" si="2">G122*0.2</f>
-        <v>532</v>
+        <f t="shared" si="2"/>
+        <v>376</v>
       </c>
       <c r="I122">
-        <f>100*0.2</f>
-        <v>20</v>
+        <f>110*0.2</f>
+        <v>22</v>
       </c>
       <c r="J122">
-        <f>2400*0.2</f>
-        <v>480</v>
+        <f>1740*0.2</f>
+        <v>348</v>
       </c>
       <c r="K122">
-        <f>2720*0.2</f>
-        <v>544</v>
+        <f>2010*0.2</f>
+        <v>402</v>
       </c>
       <c r="L122">
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C123" t="s">
         <v>33</v>
       </c>
       <c r="D123" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G123">
-        <f>780</f>
-        <v>780</v>
+        <v>570</v>
       </c>
       <c r="H123">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="I123">
         <f>90*0.2</f>
         <v>18</v>
       </c>
       <c r="J123">
-        <f>650*0.2</f>
-        <v>130</v>
+        <f>300*0.2</f>
+        <v>60</v>
       </c>
       <c r="K123">
-        <f>870*0.2</f>
-        <v>174</v>
+        <f>700*0.2</f>
+        <v>140</v>
       </c>
       <c r="L123">
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C124" t="s">
         <v>34</v>
       </c>
       <c r="D124" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G124">
-        <f>1880</f>
-        <v>1880</v>
+        <v>12600</v>
       </c>
       <c r="H124">
         <f t="shared" si="2"/>
-        <v>376</v>
+        <v>2520</v>
       </c>
       <c r="I124">
-        <f>110*0.2</f>
-        <v>22</v>
+        <f>8000*0.2</f>
+        <v>1600</v>
       </c>
       <c r="J124">
-        <f>1740*0.2</f>
-        <v>348</v>
+        <f>3000*0.2</f>
+        <v>600</v>
       </c>
       <c r="K124">
-        <f>2010*0.2</f>
-        <v>402</v>
+        <f>28000*0.2</f>
+        <v>5600</v>
       </c>
       <c r="L124">
         <v>80</v>
@@ -3274,101 +3317,101 @@
         <v>61</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D125" t="s">
         <v>62</v>
       </c>
       <c r="G125">
-        <v>570</v>
+        <v>460</v>
       </c>
       <c r="H125">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="I125">
-        <f>90*0.2</f>
-        <v>18</v>
+        <f>100*0.2</f>
+        <v>20</v>
       </c>
       <c r="J125">
         <f>300*0.2</f>
         <v>60</v>
       </c>
       <c r="K125">
-        <f>700*0.2</f>
-        <v>140</v>
+        <f>690*0.2</f>
+        <v>138</v>
       </c>
       <c r="L125">
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D126" t="s">
         <v>62</v>
       </c>
       <c r="G126">
-        <v>12600</v>
+        <v>690</v>
       </c>
       <c r="H126">
         <f t="shared" si="2"/>
-        <v>2520</v>
+        <v>138</v>
       </c>
       <c r="I126">
-        <f>8000*0.2</f>
-        <v>1600</v>
+        <f>80*0.2</f>
+        <v>16</v>
       </c>
       <c r="J126">
-        <f>3000*0.2</f>
-        <v>600</v>
+        <f>570*0.2</f>
+        <v>114</v>
       </c>
       <c r="K126">
-        <f>28000*0.2</f>
-        <v>5600</v>
+        <f>850*0.2</f>
+        <v>170</v>
       </c>
       <c r="L126">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D127" t="s">
         <v>62</v>
       </c>
       <c r="G127">
-        <v>460</v>
+        <v>2630</v>
       </c>
       <c r="H127">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>526</v>
       </c>
       <c r="I127">
-        <f>100*0.2</f>
-        <v>20</v>
+        <f>430*0.2</f>
+        <v>86</v>
       </c>
       <c r="J127">
-        <f>300*0.2</f>
-        <v>60</v>
+        <f>2100*0.2</f>
+        <v>420</v>
       </c>
       <c r="K127">
-        <f>690*0.2</f>
-        <v>138</v>
+        <f>3640*0.2</f>
+        <v>728</v>
       </c>
       <c r="L127">
         <v>80</v>
@@ -3382,101 +3425,101 @@
         <v>63</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D128" t="s">
         <v>62</v>
       </c>
       <c r="G128">
-        <v>690</v>
+        <v>600</v>
       </c>
       <c r="H128">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="I128">
-        <f>80*0.2</f>
-        <v>16</v>
+        <f>70*0.2</f>
+        <v>14</v>
       </c>
       <c r="J128">
-        <f>570*0.2</f>
-        <v>114</v>
+        <f>500*0.2</f>
+        <v>100</v>
       </c>
       <c r="K128">
-        <f>850*0.2</f>
-        <v>170</v>
+        <f>810*0.2</f>
+        <v>162</v>
       </c>
       <c r="L128">
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>53</v>
       </c>
       <c r="B129" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D129" t="s">
         <v>62</v>
       </c>
       <c r="G129">
-        <v>2630</v>
+        <v>1100</v>
       </c>
       <c r="H129">
         <f t="shared" si="2"/>
-        <v>526</v>
+        <v>220</v>
       </c>
       <c r="I129">
-        <f>430*0.2</f>
-        <v>86</v>
+        <f>200*0.2</f>
+        <v>40</v>
       </c>
       <c r="J129">
-        <f>2100*0.2</f>
-        <v>420</v>
+        <f>870*0.2</f>
+        <v>174</v>
       </c>
       <c r="K129">
-        <f>3640*0.2</f>
-        <v>728</v>
+        <f>1420*0.2</f>
+        <v>284</v>
       </c>
       <c r="L129">
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>53</v>
       </c>
       <c r="B130" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D130" t="s">
         <v>62</v>
       </c>
       <c r="G130">
-        <v>600</v>
+        <v>2220</v>
       </c>
       <c r="H130">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="I130">
-        <f>70*0.2</f>
-        <v>14</v>
+        <f>1020*0.2</f>
+        <v>204</v>
       </c>
       <c r="J130">
-        <f>500*0.2</f>
-        <v>100</v>
+        <f>1090*0.2</f>
+        <v>218</v>
       </c>
       <c r="K130">
-        <f>810*0.2</f>
-        <v>162</v>
+        <f>3570*0.2</f>
+        <v>714</v>
       </c>
       <c r="L130">
         <v>80</v>
@@ -3490,107 +3533,75 @@
         <v>54</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D131" t="s">
         <v>62</v>
       </c>
       <c r="G131">
-        <v>1100</v>
+        <v>440</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="I131">
-        <f>200*0.2</f>
-        <v>40</v>
+        <f>60*0.2</f>
+        <v>12</v>
       </c>
       <c r="J131">
-        <f>870*0.2</f>
-        <v>174</v>
+        <f>330*0.2</f>
+        <v>66</v>
       </c>
       <c r="K131">
-        <f>1420*0.2</f>
-        <v>284</v>
+        <f>510*0.2</f>
+        <v>102</v>
       </c>
       <c r="L131">
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B132" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
-      </c>
-      <c r="G132">
-        <v>2220</v>
+        <v>64</v>
       </c>
       <c r="H132">
-        <f t="shared" si="2"/>
-        <v>444</v>
+        <v>565</v>
       </c>
       <c r="I132">
-        <f>1020*0.2</f>
-        <v>204</v>
-      </c>
-      <c r="J132">
-        <f>1090*0.2</f>
-        <v>218</v>
-      </c>
-      <c r="K132">
-        <f>3570*0.2</f>
-        <v>714</v>
-      </c>
-      <c r="L132">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C133" t="s">
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>62</v>
-      </c>
-      <c r="G133">
-        <v>440</v>
+        <v>64</v>
       </c>
       <c r="H133">
-        <f t="shared" si="2"/>
-        <v>88</v>
+        <v>112.9</v>
       </c>
       <c r="I133">
-        <f>60*0.2</f>
-        <v>12</v>
-      </c>
-      <c r="J133">
-        <f>330*0.2</f>
-        <v>66</v>
-      </c>
-      <c r="K133">
-        <f>510*0.2</f>
-        <v>102</v>
-      </c>
-      <c r="L133">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -3598,19 +3609,19 @@
         <v>31</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D134" t="s">
         <v>64</v>
       </c>
       <c r="H134">
-        <v>565</v>
+        <v>68.8</v>
       </c>
       <c r="I134">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -3618,19 +3629,19 @@
         <v>31</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
         <v>64</v>
       </c>
       <c r="H135">
-        <v>112.9</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="I135">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -3638,19 +3649,19 @@
         <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D136" t="s">
         <v>64</v>
       </c>
       <c r="H136">
-        <v>68.8</v>
+        <v>88.2</v>
       </c>
       <c r="I136">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -3658,19 +3669,19 @@
         <v>31</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D137" t="s">
         <v>64</v>
       </c>
       <c r="H137">
-        <v>37.799999999999997</v>
+        <v>759.1</v>
       </c>
       <c r="I137">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>1627.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -3678,19 +3689,19 @@
         <v>31</v>
       </c>
       <c r="C138" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
         <v>64</v>
       </c>
       <c r="H138">
-        <v>88.2</v>
+        <v>635.1</v>
       </c>
       <c r="I138">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>215.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -3698,19 +3709,19 @@
         <v>31</v>
       </c>
       <c r="C139" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D139" t="s">
         <v>64</v>
       </c>
       <c r="H139">
-        <v>759.1</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="I139">
-        <v>1627.7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -3718,19 +3729,19 @@
         <v>31</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D140" t="s">
         <v>64</v>
       </c>
       <c r="H140">
-        <v>635.1</v>
+        <v>298.2</v>
       </c>
       <c r="I140">
-        <v>215.8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -3738,19 +3749,19 @@
         <v>31</v>
       </c>
       <c r="C141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D141" t="s">
         <v>64</v>
       </c>
       <c r="H141">
-        <v>279.60000000000002</v>
+        <v>140.4</v>
       </c>
       <c r="I141">
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -3758,19 +3769,19 @@
         <v>31</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D142" t="s">
         <v>64</v>
       </c>
       <c r="H142">
-        <v>298.2</v>
+        <v>107.3</v>
       </c>
       <c r="I142">
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -3778,59 +3789,75 @@
         <v>31</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
         <v>64</v>
       </c>
       <c r="H143">
-        <v>140.4</v>
+        <v>44.3</v>
       </c>
       <c r="I143">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C144" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="G144">
+        <v>77.599999999999994</v>
       </c>
       <c r="H144">
-        <v>107.3</v>
+        <f>G144*0.2</f>
+        <v>15.52</v>
       </c>
       <c r="I144">
-        <v>49.4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <f>134.55*0.2</f>
+        <v>26.910000000000004</v>
+      </c>
+      <c r="L144">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C145" t="s">
         <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="G145">
+        <v>35.130000000000003</v>
       </c>
       <c r="H145">
-        <v>44.3</v>
+        <f>G145*0.2</f>
+        <v>7.0260000000000007</v>
       </c>
       <c r="I145">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <f>37.91*0.2</f>
+        <v>7.5819999999999999</v>
+      </c>
+      <c r="L145">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -3844,21 +3871,21 @@
         <v>66</v>
       </c>
       <c r="G146">
-        <v>77.599999999999994</v>
+        <v>69.45</v>
       </c>
       <c r="H146">
-        <f>G146*0.2</f>
-        <v>15.52</v>
+        <f t="shared" ref="H146:H194" si="3">G146*0.2</f>
+        <v>13.89</v>
       </c>
       <c r="I146">
-        <f>134.55*0.2</f>
-        <v>26.910000000000004</v>
+        <f>109.94*0.2</f>
+        <v>21.988</v>
       </c>
       <c r="L146">
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -3872,26 +3899,26 @@
         <v>66</v>
       </c>
       <c r="G147">
-        <v>35.130000000000003</v>
+        <v>39.090000000000003</v>
       </c>
       <c r="H147">
-        <f>G147*0.2</f>
-        <v>7.0260000000000007</v>
+        <f t="shared" si="3"/>
+        <v>7.8180000000000014</v>
       </c>
       <c r="I147">
-        <f>37.91*0.2</f>
-        <v>7.5819999999999999</v>
+        <f>24.33*0.2</f>
+        <v>4.8659999999999997</v>
       </c>
       <c r="L147">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C148" t="s">
         <v>40</v>
@@ -3900,26 +3927,26 @@
         <v>66</v>
       </c>
       <c r="G148">
-        <v>69.45</v>
+        <v>126.28</v>
       </c>
       <c r="H148">
-        <f t="shared" ref="H148:H196" si="3">G148*0.2</f>
-        <v>13.89</v>
+        <f t="shared" si="3"/>
+        <v>25.256</v>
       </c>
       <c r="I148">
-        <f>109.94*0.2</f>
-        <v>21.988</v>
+        <f>103.63*0.2</f>
+        <v>20.725999999999999</v>
       </c>
       <c r="L148">
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C149" t="s">
         <v>40</v>
@@ -3928,21 +3955,21 @@
         <v>66</v>
       </c>
       <c r="G149">
-        <v>39.090000000000003</v>
+        <v>32.06</v>
       </c>
       <c r="H149">
         <f t="shared" si="3"/>
-        <v>7.8180000000000014</v>
+        <v>6.4120000000000008</v>
       </c>
       <c r="I149">
-        <f>24.33*0.2</f>
-        <v>4.8659999999999997</v>
+        <f>13.8*0.2</f>
+        <v>2.7600000000000002</v>
       </c>
       <c r="L149">
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3956,21 +3983,21 @@
         <v>66</v>
       </c>
       <c r="G150">
-        <v>126.28</v>
+        <v>164.26</v>
       </c>
       <c r="H150">
         <f t="shared" si="3"/>
-        <v>25.256</v>
+        <v>32.851999999999997</v>
       </c>
       <c r="I150">
-        <f>103.63*0.2</f>
-        <v>20.725999999999999</v>
+        <f>149.75*0.2</f>
+        <v>29.950000000000003</v>
       </c>
       <c r="L150">
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -3984,26 +4011,26 @@
         <v>66</v>
       </c>
       <c r="G151">
-        <v>32.06</v>
+        <v>22.47</v>
       </c>
       <c r="H151">
         <f t="shared" si="3"/>
-        <v>6.4120000000000008</v>
+        <v>4.4939999999999998</v>
       </c>
       <c r="I151">
-        <f>13.8*0.2</f>
-        <v>2.7600000000000002</v>
+        <f>11.63*0.2</f>
+        <v>2.3260000000000001</v>
       </c>
       <c r="L151">
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>30</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C152" t="s">
         <v>40</v>
@@ -4012,26 +4039,26 @@
         <v>66</v>
       </c>
       <c r="G152">
-        <v>164.26</v>
+        <v>59.74</v>
       </c>
       <c r="H152">
         <f t="shared" si="3"/>
-        <v>32.851999999999997</v>
+        <v>11.948</v>
       </c>
       <c r="I152">
-        <f>149.75*0.2</f>
-        <v>29.950000000000003</v>
+        <f>45.26*0.2</f>
+        <v>9.0519999999999996</v>
       </c>
       <c r="L152">
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>30</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C153" t="s">
         <v>40</v>
@@ -4040,21 +4067,21 @@
         <v>66</v>
       </c>
       <c r="G153">
-        <v>22.47</v>
+        <v>23.37</v>
       </c>
       <c r="H153">
         <f t="shared" si="3"/>
-        <v>4.4939999999999998</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="I153">
-        <f>11.63*0.2</f>
-        <v>2.3260000000000001</v>
+        <f>11.25*0.2</f>
+        <v>2.25</v>
       </c>
       <c r="L153">
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -4068,82 +4095,82 @@
         <v>66</v>
       </c>
       <c r="G154">
-        <v>59.74</v>
+        <v>27.98</v>
       </c>
       <c r="H154">
         <f t="shared" si="3"/>
-        <v>11.948</v>
+        <v>5.5960000000000001</v>
       </c>
       <c r="I154">
-        <f>45.26*0.2</f>
-        <v>9.0519999999999996</v>
+        <f>41.2*0.2</f>
+        <v>8.24</v>
       </c>
       <c r="L154">
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>30</v>
       </c>
       <c r="B155" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C155" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G155">
-        <v>23.37</v>
+        <v>2869.46</v>
       </c>
       <c r="H155">
         <f t="shared" si="3"/>
-        <v>4.6740000000000004</v>
+        <v>573.89200000000005</v>
       </c>
       <c r="I155">
-        <f>11.25*0.2</f>
-        <v>2.25</v>
+        <f>0.2*3051.88</f>
+        <v>610.37600000000009</v>
       </c>
       <c r="L155">
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>30</v>
       </c>
       <c r="B156" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G156">
-        <v>27.98</v>
+        <v>4002.21</v>
       </c>
       <c r="H156">
         <f t="shared" si="3"/>
-        <v>5.5960000000000001</v>
+        <v>800.44200000000001</v>
       </c>
       <c r="I156">
-        <f>41.2*0.2</f>
-        <v>8.24</v>
+        <f>0.2*2744.67</f>
+        <v>548.93400000000008</v>
       </c>
       <c r="L156">
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>30</v>
       </c>
       <c r="B157" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C157" t="s">
         <v>34</v>
@@ -4152,21 +4179,17 @@
         <v>67</v>
       </c>
       <c r="G157">
-        <v>2869.46</v>
+        <v>2040.44</v>
       </c>
       <c r="H157">
         <f t="shared" si="3"/>
-        <v>573.89200000000005</v>
-      </c>
-      <c r="I157">
-        <f>0.2*3051.88</f>
-        <v>610.37600000000009</v>
+        <v>408.08800000000002</v>
       </c>
       <c r="L157">
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>30</v>
       </c>
@@ -4180,21 +4203,21 @@
         <v>67</v>
       </c>
       <c r="G158">
-        <v>4002.21</v>
+        <v>1820.42</v>
       </c>
       <c r="H158">
         <f t="shared" si="3"/>
-        <v>800.44200000000001</v>
+        <v>364.08400000000006</v>
       </c>
       <c r="I158">
-        <f>0.2*2744.67</f>
-        <v>548.93400000000008</v>
+        <f>352.46*0.2</f>
+        <v>70.492000000000004</v>
       </c>
       <c r="L158">
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -4208,78 +4231,82 @@
         <v>67</v>
       </c>
       <c r="G159">
-        <v>2040.44</v>
+        <v>1405.87</v>
       </c>
       <c r="H159">
         <f t="shared" si="3"/>
-        <v>408.08800000000002</v>
+        <v>281.17399999999998</v>
+      </c>
+      <c r="I159">
+        <f>822.8*0.2</f>
+        <v>164.56</v>
       </c>
       <c r="L159">
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D160" t="s">
         <v>67</v>
       </c>
       <c r="G160">
-        <v>1820.42</v>
+        <v>824.59</v>
       </c>
       <c r="H160">
         <f t="shared" si="3"/>
-        <v>364.08400000000006</v>
+        <v>164.91800000000001</v>
       </c>
       <c r="I160">
-        <f>352.46*0.2</f>
-        <v>70.492000000000004</v>
+        <f>275.66*0.2</f>
+        <v>55.132000000000005</v>
       </c>
       <c r="L160">
         <v>80</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>30</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D161" t="s">
         <v>67</v>
       </c>
       <c r="G161">
-        <v>1405.87</v>
+        <v>362.83</v>
       </c>
       <c r="H161">
         <f t="shared" si="3"/>
-        <v>281.17399999999998</v>
+        <v>72.566000000000003</v>
       </c>
       <c r="I161">
-        <f>822.8*0.2</f>
-        <v>164.56</v>
+        <f>75.61*0.2</f>
+        <v>15.122</v>
       </c>
       <c r="L161">
         <v>80</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C162" t="s">
         <v>38</v>
@@ -4288,21 +4315,17 @@
         <v>67</v>
       </c>
       <c r="G162">
-        <v>824.59</v>
+        <v>531.94000000000005</v>
       </c>
       <c r="H162">
         <f t="shared" si="3"/>
-        <v>164.91800000000001</v>
-      </c>
-      <c r="I162">
-        <f>275.66*0.2</f>
-        <v>55.132000000000005</v>
+        <v>106.38800000000002</v>
       </c>
       <c r="L162">
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>30</v>
       </c>
@@ -4316,21 +4339,21 @@
         <v>67</v>
       </c>
       <c r="G163">
-        <v>362.83</v>
+        <v>669.58</v>
       </c>
       <c r="H163">
         <f t="shared" si="3"/>
-        <v>72.566000000000003</v>
+        <v>133.91600000000003</v>
       </c>
       <c r="I163">
-        <f>75.61*0.2</f>
-        <v>15.122</v>
+        <f>224.13*0.2</f>
+        <v>44.826000000000001</v>
       </c>
       <c r="L163">
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>30</v>
       </c>
@@ -4344,78 +4367,82 @@
         <v>67</v>
       </c>
       <c r="G164">
-        <v>531.94000000000005</v>
+        <v>625.69000000000005</v>
       </c>
       <c r="H164">
         <f t="shared" si="3"/>
-        <v>106.38800000000002</v>
+        <v>125.13800000000002</v>
+      </c>
+      <c r="I164">
+        <f>6.36*0.2</f>
+        <v>1.2720000000000002</v>
       </c>
       <c r="L164">
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>30</v>
       </c>
       <c r="B165" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C165" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D165" t="s">
         <v>67</v>
       </c>
       <c r="G165">
-        <v>669.58</v>
+        <v>486.14</v>
       </c>
       <c r="H165">
         <f t="shared" si="3"/>
-        <v>133.91600000000003</v>
+        <v>97.228000000000009</v>
       </c>
       <c r="I165">
-        <f>224.13*0.2</f>
-        <v>44.826000000000001</v>
+        <f>209.63*0.2</f>
+        <v>41.926000000000002</v>
       </c>
       <c r="L165">
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>30</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D166" t="s">
         <v>67</v>
       </c>
       <c r="G166">
-        <v>625.69000000000005</v>
+        <v>220.16</v>
       </c>
       <c r="H166">
         <f t="shared" si="3"/>
-        <v>125.13800000000002</v>
+        <v>44.032000000000004</v>
       </c>
       <c r="I166">
-        <f>6.36*0.2</f>
-        <v>1.2720000000000002</v>
+        <f>62.04*0.2</f>
+        <v>12.408000000000001</v>
       </c>
       <c r="L166">
         <v>80</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>30</v>
       </c>
       <c r="B167" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
         <v>33</v>
@@ -4424,21 +4451,17 @@
         <v>67</v>
       </c>
       <c r="G167">
-        <v>486.14</v>
+        <v>423.43</v>
       </c>
       <c r="H167">
         <f t="shared" si="3"/>
-        <v>97.228000000000009</v>
-      </c>
-      <c r="I167">
-        <f>209.63*0.2</f>
-        <v>41.926000000000002</v>
+        <v>84.686000000000007</v>
       </c>
       <c r="L167">
         <v>80</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>30</v>
       </c>
@@ -4452,21 +4475,21 @@
         <v>67</v>
       </c>
       <c r="G168">
-        <v>220.16</v>
+        <v>480.71</v>
       </c>
       <c r="H168">
         <f t="shared" si="3"/>
-        <v>44.032000000000004</v>
+        <v>96.141999999999996</v>
       </c>
       <c r="I168">
-        <f>62.04*0.2</f>
-        <v>12.408000000000001</v>
+        <f>112.7*0.2</f>
+        <v>22.540000000000003</v>
       </c>
       <c r="L168">
         <v>80</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>30</v>
       </c>
@@ -4480,78 +4503,82 @@
         <v>67</v>
       </c>
       <c r="G169">
-        <v>423.43</v>
+        <v>595.83000000000004</v>
       </c>
       <c r="H169">
         <f t="shared" si="3"/>
-        <v>84.686000000000007</v>
+        <v>119.16600000000001</v>
+      </c>
+      <c r="I169">
+        <f>264.46*0.2</f>
+        <v>52.891999999999996</v>
       </c>
       <c r="L169">
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>30</v>
       </c>
       <c r="B170" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D170" t="s">
         <v>67</v>
       </c>
       <c r="G170">
-        <v>480.71</v>
+        <v>70.03</v>
       </c>
       <c r="H170">
         <f t="shared" si="3"/>
-        <v>96.141999999999996</v>
+        <v>14.006</v>
       </c>
       <c r="I170">
-        <f>112.7*0.2</f>
-        <v>22.540000000000003</v>
+        <f>39.96*0.2</f>
+        <v>7.9920000000000009</v>
       </c>
       <c r="L170">
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>30</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D171" t="s">
         <v>67</v>
       </c>
       <c r="G171">
-        <v>595.83000000000004</v>
+        <v>44.08</v>
       </c>
       <c r="H171">
         <f t="shared" si="3"/>
-        <v>119.16600000000001</v>
+        <v>8.8160000000000007</v>
       </c>
       <c r="I171">
-        <f>264.46*0.2</f>
-        <v>52.891999999999996</v>
+        <f>33.04*0.2</f>
+        <v>6.6080000000000005</v>
       </c>
       <c r="L171">
         <v>80</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>30</v>
       </c>
       <c r="B172" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C172" t="s">
         <v>39</v>
@@ -4560,21 +4587,17 @@
         <v>67</v>
       </c>
       <c r="G172">
-        <v>70.03</v>
+        <v>44.12</v>
       </c>
       <c r="H172">
         <f t="shared" si="3"/>
-        <v>14.006</v>
-      </c>
-      <c r="I172">
-        <f>39.96*0.2</f>
-        <v>7.9920000000000009</v>
+        <v>8.8239999999999998</v>
       </c>
       <c r="L172">
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -4588,21 +4611,21 @@
         <v>67</v>
       </c>
       <c r="G173">
-        <v>44.08</v>
+        <v>56.06</v>
       </c>
       <c r="H173">
         <f t="shared" si="3"/>
-        <v>8.8160000000000007</v>
+        <v>11.212000000000002</v>
       </c>
       <c r="I173">
-        <f>33.04*0.2</f>
-        <v>6.6080000000000005</v>
+        <f>28.85*0.2</f>
+        <v>5.7700000000000005</v>
       </c>
       <c r="L173">
         <v>80</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>30</v>
       </c>
@@ -4616,74 +4639,78 @@
         <v>67</v>
       </c>
       <c r="G174">
-        <v>44.12</v>
+        <v>12.58</v>
       </c>
       <c r="H174">
         <f t="shared" si="3"/>
-        <v>8.8239999999999998</v>
+        <v>2.516</v>
       </c>
       <c r="L174">
         <v>80</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>30</v>
       </c>
       <c r="B175" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D175" t="s">
         <v>67</v>
       </c>
       <c r="G175">
-        <v>56.06</v>
+        <v>16.61</v>
       </c>
       <c r="H175">
         <f t="shared" si="3"/>
-        <v>11.212000000000002</v>
+        <v>3.3220000000000001</v>
       </c>
       <c r="I175">
-        <f>28.85*0.2</f>
-        <v>5.7700000000000005</v>
+        <f>0.05*0.2</f>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="L175">
         <v>80</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>30</v>
       </c>
       <c r="B176" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D176" t="s">
         <v>67</v>
       </c>
       <c r="G176">
-        <v>12.58</v>
+        <v>29.74</v>
       </c>
       <c r="H176">
         <f t="shared" si="3"/>
-        <v>2.516</v>
+        <v>5.9480000000000004</v>
+      </c>
+      <c r="I176">
+        <f>29.14*0.2</f>
+        <v>5.8280000000000003</v>
       </c>
       <c r="L176">
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>30</v>
       </c>
       <c r="B177" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C177" t="s">
         <v>40</v>
@@ -4692,21 +4719,17 @@
         <v>67</v>
       </c>
       <c r="G177">
-        <v>16.61</v>
+        <v>15.28</v>
       </c>
       <c r="H177">
         <f t="shared" si="3"/>
-        <v>3.3220000000000001</v>
-      </c>
-      <c r="I177">
-        <f>0.05*0.2</f>
-        <v>1.0000000000000002E-2</v>
+        <v>3.056</v>
       </c>
       <c r="L177">
         <v>80</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>30</v>
       </c>
@@ -4720,21 +4743,21 @@
         <v>67</v>
       </c>
       <c r="G178">
-        <v>29.74</v>
+        <v>20.22</v>
       </c>
       <c r="H178">
         <f t="shared" si="3"/>
-        <v>5.9480000000000004</v>
+        <v>4.0439999999999996</v>
       </c>
       <c r="I178">
-        <f>29.14*0.2</f>
-        <v>5.8280000000000003</v>
+        <f>12.75*0.2</f>
+        <v>2.5500000000000003</v>
       </c>
       <c r="L178">
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -4748,45 +4771,49 @@
         <v>67</v>
       </c>
       <c r="G179">
-        <v>15.28</v>
+        <v>4.29</v>
       </c>
       <c r="H179">
         <f t="shared" si="3"/>
-        <v>3.056</v>
+        <v>0.8580000000000001</v>
+      </c>
+      <c r="I179">
+        <f>0.47*0.2</f>
+        <v>9.4E-2</v>
       </c>
       <c r="L179">
         <v>80</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>30</v>
       </c>
       <c r="B180" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D180" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G180">
-        <v>20.22</v>
+        <v>854.55</v>
       </c>
       <c r="H180">
         <f t="shared" si="3"/>
-        <v>4.0439999999999996</v>
+        <v>170.91</v>
       </c>
       <c r="I180">
-        <f>12.75*0.2</f>
-        <v>2.5500000000000003</v>
+        <f>136.61*0.2</f>
+        <v>27.322000000000003</v>
       </c>
       <c r="L180">
         <v>80</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>30</v>
       </c>
@@ -4794,32 +4821,32 @@
         <v>31</v>
       </c>
       <c r="C181" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D181" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G181">
-        <v>4.29</v>
+        <v>1364.01</v>
       </c>
       <c r="H181">
         <f t="shared" si="3"/>
-        <v>0.8580000000000001</v>
+        <v>272.80200000000002</v>
       </c>
       <c r="I181">
-        <f>0.47*0.2</f>
-        <v>9.4E-2</v>
+        <f>0.2*351.09</f>
+        <v>70.218000000000004</v>
       </c>
       <c r="L181">
         <v>80</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>30</v>
       </c>
       <c r="B182" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C182" t="s">
         <v>34</v>
@@ -4828,82 +4855,82 @@
         <v>68</v>
       </c>
       <c r="G182">
-        <v>854.55</v>
+        <v>2075.44</v>
       </c>
       <c r="H182">
         <f t="shared" si="3"/>
-        <v>170.91</v>
+        <v>415.08800000000002</v>
       </c>
       <c r="I182">
-        <f>136.61*0.2</f>
-        <v>27.322000000000003</v>
+        <f>0.2*1745.28</f>
+        <v>349.05600000000004</v>
       </c>
       <c r="L182">
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>30</v>
       </c>
       <c r="B183" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D183" t="s">
         <v>68</v>
       </c>
       <c r="G183">
-        <v>1364.01</v>
+        <v>302.35000000000002</v>
       </c>
       <c r="H183">
         <f t="shared" si="3"/>
-        <v>272.80200000000002</v>
+        <v>60.470000000000006</v>
       </c>
       <c r="I183">
-        <f>0.2*351.09</f>
-        <v>70.218000000000004</v>
+        <f>0.2*103.68</f>
+        <v>20.736000000000004</v>
       </c>
       <c r="L183">
         <v>80</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>30</v>
       </c>
       <c r="B184" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D184" t="s">
         <v>68</v>
       </c>
       <c r="G184">
-        <v>2075.44</v>
+        <v>327.02999999999997</v>
       </c>
       <c r="H184">
         <f t="shared" si="3"/>
-        <v>415.08800000000002</v>
+        <v>65.405999999999992</v>
       </c>
       <c r="I184">
-        <f>0.2*1745.28</f>
-        <v>349.05600000000004</v>
+        <f>0.2*112.89</f>
+        <v>22.578000000000003</v>
       </c>
       <c r="L184">
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>30</v>
       </c>
       <c r="B185" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C185" t="s">
         <v>38</v>
@@ -4912,82 +4939,82 @@
         <v>68</v>
       </c>
       <c r="G185">
-        <v>302.35000000000002</v>
+        <v>397.49</v>
       </c>
       <c r="H185">
         <f t="shared" si="3"/>
-        <v>60.470000000000006</v>
+        <v>79.498000000000005</v>
       </c>
       <c r="I185">
-        <f>0.2*103.68</f>
-        <v>20.736000000000004</v>
+        <f>82.35*0.2</f>
+        <v>16.47</v>
       </c>
       <c r="L185">
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>30</v>
       </c>
       <c r="B186" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C186" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D186" t="s">
         <v>68</v>
       </c>
       <c r="G186">
-        <v>327.02999999999997</v>
+        <v>180.07</v>
       </c>
       <c r="H186">
         <f t="shared" si="3"/>
-        <v>65.405999999999992</v>
+        <v>36.014000000000003</v>
       </c>
       <c r="I186">
-        <f>0.2*112.89</f>
-        <v>22.578000000000003</v>
+        <f>0.2*81.65</f>
+        <v>16.330000000000002</v>
       </c>
       <c r="L186">
         <v>80</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>30</v>
       </c>
       <c r="B187" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C187" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D187" t="s">
         <v>68</v>
       </c>
       <c r="G187">
-        <v>397.49</v>
+        <v>154.97</v>
       </c>
       <c r="H187">
         <f t="shared" si="3"/>
-        <v>79.498000000000005</v>
+        <v>30.994</v>
       </c>
       <c r="I187">
-        <f>82.35*0.2</f>
-        <v>16.47</v>
+        <f>0.2*66.71</f>
+        <v>13.341999999999999</v>
       </c>
       <c r="L187">
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>30</v>
       </c>
       <c r="B188" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C188" t="s">
         <v>33</v>
@@ -4996,82 +5023,78 @@
         <v>68</v>
       </c>
       <c r="G188">
-        <v>180.07</v>
+        <v>328.59</v>
       </c>
       <c r="H188">
         <f t="shared" si="3"/>
-        <v>36.014000000000003</v>
+        <v>65.718000000000004</v>
       </c>
       <c r="I188">
-        <f>0.2*81.65</f>
-        <v>16.330000000000002</v>
+        <f>0.2*102.73</f>
+        <v>20.546000000000003</v>
       </c>
       <c r="L188">
         <v>80</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>30</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D189" t="s">
         <v>68</v>
       </c>
       <c r="G189">
-        <v>154.97</v>
+        <v>154.13</v>
       </c>
       <c r="H189">
         <f t="shared" si="3"/>
-        <v>30.994</v>
-      </c>
-      <c r="I189">
-        <f>0.2*66.71</f>
-        <v>13.341999999999999</v>
+        <v>30.826000000000001</v>
       </c>
       <c r="L189">
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>30</v>
       </c>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D190" t="s">
         <v>68</v>
       </c>
       <c r="G190">
-        <v>328.59</v>
+        <v>78.67</v>
       </c>
       <c r="H190">
         <f t="shared" si="3"/>
-        <v>65.718000000000004</v>
+        <v>15.734000000000002</v>
       </c>
       <c r="I190">
-        <f>0.2*102.73</f>
-        <v>20.546000000000003</v>
+        <f>0.2*33.16</f>
+        <v>6.6319999999999997</v>
       </c>
       <c r="L190">
         <v>80</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>30</v>
       </c>
       <c r="B191" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C191" t="s">
         <v>39</v>
@@ -5080,79 +5103,83 @@
         <v>68</v>
       </c>
       <c r="G191">
-        <v>154.13</v>
+        <v>117.49</v>
       </c>
       <c r="H191">
         <f t="shared" si="3"/>
-        <v>30.826000000000001</v>
-      </c>
+        <v>23.498000000000001</v>
+      </c>
+      <c r="I191">
+        <f>0.2*40.1</f>
+        <v>8.0200000000000014</v>
+      </c>
+      <c r="K191" s="3"/>
       <c r="L191">
         <v>80</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>30</v>
       </c>
       <c r="B192" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D192" t="s">
         <v>68</v>
       </c>
       <c r="G192">
-        <v>78.67</v>
+        <v>42.85</v>
       </c>
       <c r="H192">
         <f t="shared" si="3"/>
-        <v>15.734000000000002</v>
+        <v>8.57</v>
       </c>
       <c r="I192">
-        <f>0.2*33.16</f>
-        <v>6.6319999999999997</v>
+        <f>0.2*37.05</f>
+        <v>7.41</v>
       </c>
       <c r="L192">
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>30</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D193" t="s">
         <v>68</v>
       </c>
       <c r="G193">
-        <v>117.49</v>
+        <v>79.8</v>
       </c>
       <c r="H193">
         <f t="shared" si="3"/>
-        <v>23.498000000000001</v>
+        <v>15.96</v>
       </c>
       <c r="I193">
-        <f>0.2*40.1</f>
-        <v>8.0200000000000014</v>
-      </c>
-      <c r="K193" s="3"/>
+        <f>0.2*62.22</f>
+        <v>12.444000000000001</v>
+      </c>
       <c r="L193">
         <v>80</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>30</v>
       </c>
       <c r="B194" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C194" t="s">
         <v>40</v>
@@ -5161,74 +5188,70 @@
         <v>68</v>
       </c>
       <c r="G194">
-        <v>42.85</v>
+        <v>173.86</v>
       </c>
       <c r="H194">
         <f t="shared" si="3"/>
-        <v>8.57</v>
+        <v>34.772000000000006</v>
       </c>
       <c r="I194">
-        <f>0.2*37.05</f>
-        <v>7.41</v>
-      </c>
-      <c r="L194">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>30</v>
-      </c>
-      <c r="B195" t="s">
-        <v>31</v>
-      </c>
-      <c r="C195" t="s">
-        <v>40</v>
-      </c>
-      <c r="D195" t="s">
-        <v>68</v>
-      </c>
-      <c r="G195">
-        <v>79.8</v>
-      </c>
-      <c r="H195">
-        <f t="shared" si="3"/>
-        <v>15.96</v>
-      </c>
-      <c r="I195">
-        <f>0.2*62.22</f>
-        <v>12.444000000000001</v>
-      </c>
-      <c r="L195">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>30</v>
-      </c>
-      <c r="B196" t="s">
-        <v>60</v>
-      </c>
-      <c r="C196" t="s">
-        <v>40</v>
-      </c>
-      <c r="D196" t="s">
-        <v>68</v>
-      </c>
-      <c r="G196">
-        <v>173.86</v>
-      </c>
-      <c r="H196">
-        <f t="shared" si="3"/>
-        <v>34.772000000000006</v>
-      </c>
-      <c r="I196">
         <f>0.2*173.09</f>
         <v>34.618000000000002</v>
       </c>
-      <c r="L196">
-        <v>80</v>
+      <c r="L194">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>53</v>
+      </c>
+      <c r="B195" t="s">
+        <v>70</v>
+      </c>
+      <c r="C195" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="H195">
+        <v>118</v>
+      </c>
+      <c r="I195">
+        <v>35</v>
+      </c>
+      <c r="J195">
+        <v>44</v>
+      </c>
+      <c r="K195">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>53</v>
+      </c>
+      <c r="B196" t="s">
+        <v>70</v>
+      </c>
+      <c r="C196" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="H196">
+        <v>376</v>
+      </c>
+      <c r="I196">
+        <v>254</v>
+      </c>
+      <c r="J196">
+        <v>141</v>
+      </c>
+      <c r="K196">
+        <v>1230</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
@@ -5239,25 +5262,25 @@
         <v>70</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D197" t="s">
         <v>69</v>
       </c>
       <c r="H197">
-        <v>118</v>
+        <v>74.7</v>
       </c>
       <c r="I197">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J197">
-        <v>44</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="K197">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>53</v>
       </c>
@@ -5265,25 +5288,25 @@
         <v>70</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D198" t="s">
         <v>69</v>
       </c>
       <c r="H198">
-        <v>376</v>
+        <v>108</v>
       </c>
       <c r="I198">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="J198">
-        <v>141</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="K198">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>53</v>
       </c>
@@ -5291,22 +5314,22 @@
         <v>70</v>
       </c>
       <c r="C199" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D199" t="s">
         <v>69</v>
       </c>
       <c r="H199">
-        <v>74.7</v>
+        <v>351</v>
       </c>
       <c r="I199">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="J199">
-        <v>37.200000000000003</v>
+        <v>172</v>
       </c>
       <c r="K199">
-        <v>152</v>
+        <v>781</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
@@ -5317,103 +5340,103 @@
         <v>70</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D200" t="s">
         <v>69</v>
       </c>
       <c r="H200">
-        <v>108</v>
+        <v>97.6</v>
       </c>
       <c r="I200">
-        <v>51</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="J200">
-        <v>33.200000000000003</v>
+        <v>61.7</v>
       </c>
       <c r="K200">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>53</v>
       </c>
       <c r="B201" t="s">
-        <v>70</v>
-      </c>
-      <c r="C201" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D201" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="G201">
+        <v>1800</v>
       </c>
       <c r="H201">
-        <v>351</v>
-      </c>
-      <c r="I201">
-        <v>187</v>
+        <f>G201*0.2</f>
+        <v>360</v>
       </c>
       <c r="J201">
-        <v>172</v>
-      </c>
-      <c r="K201">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>53</v>
-      </c>
-      <c r="B202" t="s">
-        <v>70</v>
-      </c>
-      <c r="C202" t="s">
-        <v>38</v>
-      </c>
-      <c r="D202" t="s">
-        <v>69</v>
-      </c>
-      <c r="H202">
-        <v>97.6</v>
-      </c>
-      <c r="I202">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="J202">
-        <v>61.7</v>
-      </c>
-      <c r="K202">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>53</v>
-      </c>
-      <c r="B203" t="s">
-        <v>71</v>
-      </c>
-      <c r="D203" t="s">
-        <v>72</v>
-      </c>
-      <c r="G203">
-        <v>1800</v>
-      </c>
-      <c r="H203">
-        <f>G203*0.2</f>
-        <v>360</v>
-      </c>
-      <c r="J203">
         <f>1100*0.2</f>
         <v>220</v>
       </c>
-      <c r="K203">
+      <c r="K201">
         <f>2800*0.2</f>
         <v>560</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>53</v>
+      </c>
+      <c r="B202" t="s">
+        <v>73</v>
+      </c>
+      <c r="C202" t="s">
+        <v>34</v>
+      </c>
+      <c r="D202" t="s">
+        <v>75</v>
+      </c>
+      <c r="H202">
+        <v>4000</v>
+      </c>
+      <c r="I202">
+        <v>1000</v>
+      </c>
+      <c r="J202">
+        <v>3530</v>
+      </c>
+      <c r="K202">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>53</v>
+      </c>
+      <c r="B203" t="s">
+        <v>73</v>
+      </c>
+      <c r="C203" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" t="s">
+        <v>75</v>
+      </c>
+      <c r="H203">
+        <v>900</v>
+      </c>
+      <c r="I203">
+        <v>100</v>
+      </c>
+      <c r="J203">
+        <v>730</v>
+      </c>
+      <c r="K203">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>53</v>
       </c>
@@ -5427,24 +5450,24 @@
         <v>75</v>
       </c>
       <c r="H204">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="I204">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="J204">
-        <v>3530</v>
+        <v>120</v>
       </c>
       <c r="K204">
-        <v>5110</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>53</v>
       </c>
       <c r="B205" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C205" t="s">
         <v>34</v>
@@ -5453,24 +5476,21 @@
         <v>75</v>
       </c>
       <c r="H205">
-        <v>900</v>
-      </c>
-      <c r="I205">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="J205">
-        <v>730</v>
+        <v>1030</v>
       </c>
       <c r="K205">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>53</v>
       </c>
       <c r="B206" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C206" t="s">
         <v>34</v>
@@ -5479,19 +5499,19 @@
         <v>75</v>
       </c>
       <c r="H206">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="I206">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J206">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="K206">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>53</v>
       </c>
@@ -5505,68 +5525,71 @@
         <v>75</v>
       </c>
       <c r="H207">
-        <v>1100</v>
+        <v>1000</v>
+      </c>
+      <c r="I207">
+        <v>500</v>
       </c>
       <c r="J207">
-        <v>1030</v>
+        <v>470</v>
       </c>
       <c r="K207">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>53</v>
       </c>
       <c r="B208" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D208" t="s">
         <v>75</v>
       </c>
       <c r="H208">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="I208">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="J208">
-        <v>225</v>
+        <v>66.7</v>
       </c>
       <c r="K208">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>53</v>
       </c>
       <c r="B209" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D209" t="s">
         <v>75</v>
       </c>
       <c r="H209">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="I209">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="J209">
-        <v>470</v>
+        <v>121</v>
       </c>
       <c r="K209">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>53</v>
       </c>
@@ -5580,24 +5603,24 @@
         <v>75</v>
       </c>
       <c r="H210">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I210">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J210">
-        <v>66.7</v>
+        <v>83</v>
       </c>
       <c r="K210">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>53</v>
       </c>
       <c r="B211" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C211" t="s">
         <v>38</v>
@@ -5606,24 +5629,21 @@
         <v>75</v>
       </c>
       <c r="H211">
-        <v>180</v>
-      </c>
-      <c r="I211">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J211">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="K211">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>53</v>
       </c>
       <c r="B212" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C212" t="s">
         <v>38</v>
@@ -5632,19 +5652,19 @@
         <v>75</v>
       </c>
       <c r="H212">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="I212">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J212">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="K212">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>53</v>
       </c>
@@ -5658,65 +5678,68 @@
         <v>75</v>
       </c>
       <c r="H213">
-        <v>80</v>
+        <v>120</v>
+      </c>
+      <c r="I213">
+        <v>30</v>
       </c>
       <c r="J213">
-        <v>89</v>
+        <v>87.1</v>
       </c>
       <c r="K213">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>53</v>
       </c>
       <c r="B214" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C214" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D214" t="s">
         <v>75</v>
       </c>
       <c r="H214">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="I214">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J214">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="K214">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>53</v>
       </c>
       <c r="B215" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C215" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D215" t="s">
         <v>75</v>
       </c>
       <c r="H215">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I215">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J215">
-        <v>87.1</v>
+        <v>189</v>
       </c>
       <c r="K215">
-        <v>177</v>
+        <v>339</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
@@ -5733,16 +5756,16 @@
         <v>75</v>
       </c>
       <c r="H216">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="I216">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J216">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="K216">
-        <v>180</v>
+        <v>397</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
@@ -5750,7 +5773,7 @@
         <v>53</v>
       </c>
       <c r="B217" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C217" t="s">
         <v>33</v>
@@ -5759,16 +5782,13 @@
         <v>75</v>
       </c>
       <c r="H217">
-        <v>240</v>
-      </c>
-      <c r="I217">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="J217">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="K217">
-        <v>339</v>
+        <v>163</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
@@ -5776,7 +5796,7 @@
         <v>53</v>
       </c>
       <c r="B218" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C218" t="s">
         <v>33</v>
@@ -5785,16 +5805,16 @@
         <v>75</v>
       </c>
       <c r="H218">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="I218">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J218">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="K218">
-        <v>397</v>
+        <v>432</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
@@ -5811,80 +5831,20 @@
         <v>75</v>
       </c>
       <c r="H219">
-        <v>138</v>
+        <v>260</v>
+      </c>
+      <c r="I219">
+        <v>50</v>
       </c>
       <c r="J219">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="K219">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>53</v>
-      </c>
-      <c r="B220" t="s">
-        <v>74</v>
-      </c>
-      <c r="C220" t="s">
-        <v>33</v>
-      </c>
-      <c r="D220" t="s">
-        <v>75</v>
-      </c>
-      <c r="H220">
-        <v>200</v>
-      </c>
-      <c r="I220">
-        <v>100</v>
-      </c>
-      <c r="J220">
-        <v>95</v>
-      </c>
-      <c r="K220">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>53</v>
-      </c>
-      <c r="B221" t="s">
-        <v>74</v>
-      </c>
-      <c r="C221" t="s">
-        <v>33</v>
-      </c>
-      <c r="D221" t="s">
-        <v>75</v>
-      </c>
-      <c r="H221">
-        <v>260</v>
-      </c>
-      <c r="I221">
-        <v>50</v>
-      </c>
-      <c r="J221">
-        <v>191</v>
-      </c>
-      <c r="K221">
         <v>346</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N221" xr:uid="{2B4B77F4-DCEB-41F3-86F1-19B7C1766BF4}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Seal"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Muscle"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N219" xr:uid="{2B4B77F4-DCEB-41F3-86F1-19B7C1766BF4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/Fe_in_preys.xlsx
+++ b/data/Fe_in_preys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023\Analyses\FeSthOpinn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1393FEC5-0CA7-440F-898F-F7CF0E051BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F65620-11AD-41D9-882F-25000F502E61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{B1A347AD-4986-41BD-9500-4E54C6029C2E}"/>
   </bookViews>
@@ -635,7 +635,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="590" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="K2" sqref="K2"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
